--- a/src/main/resources/ConditionalFormatting.xlsx
+++ b/src/main/resources/ConditionalFormatting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Github\_Small\JavaExcelParser\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EF4E368-60FB-4EEF-8A9E-51FEE66D1D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED8C8B4-F143-4275-85A3-96EE3AF679BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BCEB21D8-3350-4311-98CE-1281C4B6DCCC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BCEB21D8-3350-4311-98CE-1281C4B6DCCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,15 +82,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,7 +402,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,11 +497,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B11">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$A1="percent"</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$A1&lt;&gt;"percent"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$A1="percent"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
